--- a/data/output/FV2504_FV2410/PARTIN/37005.xlsx
+++ b/data/output/FV2504_FV2410/PARTIN/37005.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5382" uniqueCount="318">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5403" uniqueCount="318">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1068,6 +1068,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U229" totalsRowShown="0">
+  <autoFilter ref="A1:U229"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,7 +1387,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12721,5 +12754,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/PARTIN/37005.xlsx
+++ b/data/output/FV2504_FV2410/PARTIN/37005.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3372,7 +3372,7 @@
         <v>293</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3588,7 +3588,7 @@
         <v>293</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -5086,7 +5086,7 @@
         <v>297</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6116,7 +6116,7 @@
         <v>300</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7372,7 +7372,7 @@
         <v>297</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8054,52 +8054,52 @@
       </c>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="2"/>
       <c r="F114" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5" t="s">
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K114" s="5"/>
+      <c r="K114" s="2"/>
       <c r="L114" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M114" s="5" t="s">
+      <c r="M114" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O114" s="5" t="s">
+      <c r="O114" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P114" s="5"/>
+      <c r="P114" s="2"/>
       <c r="Q114" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5" t="s">
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V114" s="5"/>
+      <c r="V114" s="2"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -8352,7 +8352,7 @@
         <v>307</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9034,52 +9034,52 @@
       </c>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K132" s="5"/>
+      <c r="K132" s="2"/>
       <c r="L132" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M132" s="5" t="s">
+      <c r="M132" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P132" s="5"/>
+      <c r="P132" s="2"/>
       <c r="Q132" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V132" s="5"/>
+      <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -9332,7 +9332,7 @@
         <v>308</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10012,52 +10012,52 @@
       </c>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5" t="s">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K150" s="5"/>
+      <c r="K150" s="2"/>
       <c r="L150" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M150" s="5" t="s">
+      <c r="M150" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O150" s="5" t="s">
+      <c r="O150" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P150" s="5"/>
+      <c r="P150" s="2"/>
       <c r="Q150" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5" t="s">
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V150" s="5"/>
+      <c r="V150" s="2"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -10310,7 +10310,7 @@
         <v>309</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10992,52 +10992,52 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E168" s="5"/>
+      <c r="E168" s="2"/>
       <c r="F168" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K168" s="5"/>
+      <c r="K168" s="2"/>
       <c r="L168" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M168" s="5" t="s">
+      <c r="M168" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N168" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O168" s="5" t="s">
+      <c r="O168" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P168" s="5"/>
+      <c r="P168" s="2"/>
       <c r="Q168" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V168" s="5"/>
+      <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -11290,7 +11290,7 @@
         <v>308</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11972,52 +11972,52 @@
       </c>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E186" s="5"/>
+      <c r="E186" s="2"/>
       <c r="F186" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K186" s="5"/>
+      <c r="K186" s="2"/>
       <c r="L186" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M186" s="5" t="s">
+      <c r="M186" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N186" s="5" t="s">
+      <c r="N186" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O186" s="5" t="s">
+      <c r="O186" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P186" s="5"/>
+      <c r="P186" s="2"/>
       <c r="Q186" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V186" s="5"/>
+      <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="5" t="s">
@@ -12270,7 +12270,7 @@
         <v>309</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12952,52 +12952,52 @@
       </c>
     </row>
     <row r="204" spans="1:22">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E204" s="5"/>
+      <c r="E204" s="2"/>
       <c r="F204" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="5" t="s">
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K204" s="5"/>
+      <c r="K204" s="2"/>
       <c r="L204" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M204" s="5" t="s">
+      <c r="M204" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N204" s="5" t="s">
+      <c r="N204" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O204" s="5" t="s">
+      <c r="O204" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P204" s="5"/>
+      <c r="P204" s="2"/>
       <c r="Q204" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="R204" s="5"/>
-      <c r="S204" s="5"/>
-      <c r="T204" s="5"/>
-      <c r="U204" s="5" t="s">
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V204" s="5"/>
+      <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
       <c r="A205" s="5" t="s">
@@ -13250,7 +13250,7 @@
         <v>310</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13932,52 +13932,52 @@
       </c>
     </row>
     <row r="222" spans="1:22">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E222" s="5"/>
+      <c r="E222" s="2"/>
       <c r="F222" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-      <c r="J222" s="5" t="s">
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K222" s="5"/>
+      <c r="K222" s="2"/>
       <c r="L222" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M222" s="5" t="s">
+      <c r="M222" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N222" s="5" t="s">
+      <c r="N222" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O222" s="5" t="s">
+      <c r="O222" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P222" s="5"/>
+      <c r="P222" s="2"/>
       <c r="Q222" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="R222" s="5"/>
-      <c r="S222" s="5"/>
-      <c r="T222" s="5"/>
-      <c r="U222" s="5" t="s">
+      <c r="R222" s="2"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
+      <c r="U222" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V222" s="5"/>
+      <c r="V222" s="2"/>
     </row>
     <row r="223" spans="1:22">
       <c r="A223" s="5" t="s">
@@ -14208,48 +14208,48 @@
       <c r="V226" s="5"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5" t="s">
+      <c r="C227" s="2"/>
+      <c r="D227" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E227" s="5"/>
+      <c r="E227" s="2"/>
       <c r="F227" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="5" t="s">
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K227" s="5"/>
+      <c r="K227" s="2"/>
       <c r="L227" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="M227" s="5" t="s">
+      <c r="M227" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N227" s="5"/>
-      <c r="O227" s="5" t="s">
+      <c r="N227" s="2"/>
+      <c r="O227" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P227" s="5"/>
+      <c r="P227" s="2"/>
       <c r="Q227" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
-      <c r="U227" s="5" t="s">
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V227" s="5"/>
+      <c r="V227" s="2"/>
     </row>
     <row r="228" spans="1:22">
       <c r="A228" s="5" t="s">
